--- a/1stBattalionJan1915.xlsx
+++ b/1stBattalionJan1915.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08ce774be299533a/Documents/GitHub/voila-ors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE31F246-2611-4ADD-B12A-4B2EB9D01989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DE31F246-2611-4ADD-B12A-4B2EB9D01989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86023793-53B3-4815-A59C-3E365806BBAE}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="4800" windowWidth="29160" windowHeight="14700" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="12780" yWindow="5580" windowWidth="18000" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E1DDB-151E-4246-B5E7-C8D6B6A8244D}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,171 +1383,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:E36" xr:uid="{4B1E1DDB-151E-4246-B5E7-C8D6B6A8244D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">

--- a/1stBattalionJan1915.xlsx
+++ b/1stBattalionJan1915.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08ce774be299533a/Documents/GitHub/voila-ors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DE31F246-2611-4ADD-B12A-4B2EB9D01989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86023793-53B3-4815-A59C-3E365806BBAE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE31F246-2611-4ADD-B12A-4B2EB9D01989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BA0E355-A509-49A0-A7CF-BCBCA2C4558E}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="5580" windowWidth="18000" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="3375" yWindow="11400" windowWidth="18000" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Location</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Replaced by 2nd Cheshires.  Rest days</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MBS Prefix</t>
+  </si>
+  <si>
+    <t>Map Ref</t>
   </si>
 </sst>
 </file>
@@ -627,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E1DDB-151E-4246-B5E7-C8D6B6A8244D}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A102"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +655,7 @@
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -662,8 +674,20 @@
       <c r="F1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5498</v>
       </c>
@@ -680,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5499</v>
       </c>
@@ -697,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5500</v>
       </c>
@@ -714,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5513</v>
       </c>
@@ -731,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5514</v>
       </c>
@@ -748,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5515</v>
       </c>
@@ -765,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5517</v>
       </c>
@@ -782,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5518</v>
       </c>
@@ -799,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5519</v>
       </c>
@@ -816,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5520</v>
       </c>
@@ -833,7 +857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5522</v>
       </c>
@@ -850,7 +874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5525</v>
       </c>
@@ -867,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5528</v>
       </c>
@@ -884,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5530</v>
       </c>
@@ -901,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5532</v>
       </c>
